--- a/Chronicle Android Raw Data Preprocessor/Chronicle_Android_raw_data_preprocessor_apps_to_filter.xlsx
+++ b/Chronicle Android Raw Data Preprocessor/Chronicle_Android_raw_data_preprocessor_apps_to_filter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u248361_bcm_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u248361_bcm_edu/Documents/Documents/Scripts/chronicle-tools/Chronicle Android Raw Data Preprocessor/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="178" documentId="8_{0A771A0A-ABB6-483E-9851-CEB29B301996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7DEE214-B0FE-494D-8A2A-26356D472A85}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5B478F6B-D274-4A45-800A-86DC379B4855}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B478F6B-D274-4A45-800A-86DC379B4855}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
